--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2015.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2015.xlsx
@@ -129,9 +129,6 @@
     <t>Grünenthal Pharma AG</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -1413,28 +1413,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>1826290</v>
+        <v>2611851</v>
       </c>
       <c r="C30" t="n">
-        <v>1523096</v>
+        <v>812884</v>
       </c>
       <c r="D30" t="n">
-        <v>121022</v>
+        <v>15505</v>
       </c>
       <c r="E30" t="n">
-        <v>136103</v>
+        <v>29310</v>
       </c>
       <c r="F30" t="n">
-        <v>2471522</v>
+        <v>172817</v>
       </c>
       <c r="G30" t="n">
-        <v>102169</v>
+        <v>25431</v>
       </c>
       <c r="H30" t="n">
-        <v>6998109</v>
+        <v>2239565</v>
       </c>
       <c r="I30" t="n">
-        <v>13178311</v>
+        <v>5907363</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1442,28 +1442,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>2611851</v>
+        <v>1600</v>
       </c>
       <c r="C31" t="n">
-        <v>812884</v>
+        <v>96557.35000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>15505</v>
+        <v>1436.55</v>
       </c>
       <c r="E31" t="n">
-        <v>29310</v>
+        <v>2781</v>
       </c>
       <c r="F31" t="n">
-        <v>172817</v>
+        <v>42410</v>
       </c>
       <c r="G31" t="n">
-        <v>25431</v>
+        <v>42</v>
       </c>
       <c r="H31" t="n">
-        <v>2239565</v>
+        <v>5000</v>
       </c>
       <c r="I31" t="n">
-        <v>5907363</v>
+        <v>149826.9</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1471,28 +1471,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>96557.35000000001</v>
+        <v>340494</v>
       </c>
       <c r="D32" t="n">
-        <v>1436.55</v>
+        <v>2120</v>
       </c>
       <c r="E32" t="n">
-        <v>2781</v>
+        <v>2674</v>
       </c>
       <c r="F32" t="n">
-        <v>42410</v>
+        <v>232858</v>
       </c>
       <c r="G32" t="n">
-        <v>42</v>
+        <v>6619</v>
       </c>
       <c r="H32" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>149826.9</v>
+        <v>584765</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1500,28 +1500,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>762403.25</v>
       </c>
       <c r="C33" t="n">
-        <v>340494</v>
+        <v>2057536.38</v>
       </c>
       <c r="D33" t="n">
-        <v>2120</v>
+        <v>37468.98</v>
       </c>
       <c r="E33" t="n">
-        <v>2674</v>
+        <v>153339.1</v>
       </c>
       <c r="F33" t="n">
-        <v>232858</v>
+        <v>770241.2</v>
       </c>
       <c r="G33" t="n">
-        <v>6619</v>
+        <v>62210.69</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1031039.46</v>
       </c>
       <c r="I33" t="n">
-        <v>584765</v>
+        <v>4874239.06</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1529,28 +1529,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>762403.25</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2057536.38</v>
+        <v>638566</v>
       </c>
       <c r="D34" t="n">
-        <v>37468.98</v>
+        <v>9704</v>
       </c>
       <c r="E34" t="n">
-        <v>153339.1</v>
+        <v>17049</v>
       </c>
       <c r="F34" t="n">
-        <v>770241.2</v>
+        <v>147225</v>
       </c>
       <c r="G34" t="n">
-        <v>62210.69</v>
+        <v>2319</v>
       </c>
       <c r="H34" t="n">
-        <v>1031039.46</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>4874239.06</v>
+        <v>814863</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1558,28 +1558,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>4858408.1</v>
       </c>
       <c r="C35" t="n">
-        <v>638566</v>
+        <v>874911.5600000001</v>
       </c>
       <c r="D35" t="n">
-        <v>9704</v>
+        <v>51714.38</v>
       </c>
       <c r="E35" t="n">
-        <v>17049</v>
+        <v>160293.5</v>
       </c>
       <c r="F35" t="n">
-        <v>147225</v>
+        <v>188475.78</v>
       </c>
       <c r="G35" t="n">
-        <v>2319</v>
+        <v>12409.82</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2303382</v>
       </c>
       <c r="I35" t="n">
-        <v>814863</v>
+        <v>8449595.140000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1587,28 +1587,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>4858408.1</v>
+        <v>745242.55</v>
       </c>
       <c r="C36" t="n">
-        <v>874911.5600000001</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>51714.38</v>
+        <v>42010</v>
       </c>
       <c r="E36" t="n">
-        <v>160293.5</v>
+        <v>81420.39999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>188475.78</v>
+        <v>55798.2</v>
       </c>
       <c r="G36" t="n">
-        <v>12409.82</v>
+        <v>150</v>
       </c>
       <c r="H36" t="n">
-        <v>2303382</v>
+        <v>125500</v>
       </c>
       <c r="I36" t="n">
-        <v>8449595.140000001</v>
+        <v>1050121.15</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1616,28 +1616,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>745242.55</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>217590</v>
       </c>
       <c r="D37" t="n">
-        <v>42010</v>
+        <v>6883</v>
       </c>
       <c r="E37" t="n">
-        <v>81420.39999999999</v>
+        <v>14728</v>
       </c>
       <c r="F37" t="n">
-        <v>55798.2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>150</v>
+        <v>27900</v>
       </c>
       <c r="H37" t="n">
-        <v>125500</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1050121.15</v>
+        <v>267101</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1648,25 +1648,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>217590</v>
+        <v>7800</v>
       </c>
       <c r="D38" t="n">
-        <v>6883</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>14728</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>267101</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1674,28 +1674,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1824924.86</v>
       </c>
       <c r="C39" t="n">
-        <v>7800</v>
+        <v>5000149.59</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>278976.17</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>436488.24</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1874933.1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118204.16</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>16233766.85</v>
       </c>
       <c r="I39" t="n">
-        <v>7800</v>
+        <v>25767442.97</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1703,28 +1703,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>1824924.86</v>
+        <v>727870</v>
       </c>
       <c r="C40" t="n">
-        <v>5000149.59</v>
+        <v>195207</v>
       </c>
       <c r="D40" t="n">
-        <v>278976.17</v>
+        <v>79244</v>
       </c>
       <c r="E40" t="n">
-        <v>436488.24</v>
+        <v>294640</v>
       </c>
       <c r="F40" t="n">
-        <v>1874933.1</v>
+        <v>269001</v>
       </c>
       <c r="G40" t="n">
-        <v>118204.16</v>
+        <v>18638</v>
       </c>
       <c r="H40" t="n">
-        <v>16233766.85</v>
+        <v>205170</v>
       </c>
       <c r="I40" t="n">
-        <v>25767442.97</v>
+        <v>1789770</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1732,28 +1732,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>727870</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>195207</v>
+        <v>168656</v>
       </c>
       <c r="D41" t="n">
-        <v>79244</v>
+        <v>9901.24</v>
       </c>
       <c r="E41" t="n">
-        <v>294640</v>
+        <v>23947.66</v>
       </c>
       <c r="F41" t="n">
-        <v>269001</v>
+        <v>11500</v>
       </c>
       <c r="G41" t="n">
-        <v>18638</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205170</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1789770</v>
+        <v>214004.9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1761,28 +1761,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C42" t="n">
-        <v>168656</v>
+        <v>102391.88</v>
       </c>
       <c r="D42" t="n">
-        <v>9901.24</v>
+        <v>6457.11</v>
       </c>
       <c r="E42" t="n">
-        <v>23947.66</v>
+        <v>24173.39</v>
       </c>
       <c r="F42" t="n">
-        <v>11500</v>
+        <v>85981.35000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6983.18</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>214004.9</v>
+        <v>235986.91</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1790,28 +1790,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>10000</v>
+        <v>797257</v>
       </c>
       <c r="C43" t="n">
-        <v>102391.88</v>
+        <v>3115267</v>
       </c>
       <c r="D43" t="n">
-        <v>6457.11</v>
+        <v>72930</v>
       </c>
       <c r="E43" t="n">
-        <v>24173.39</v>
+        <v>215503</v>
       </c>
       <c r="F43" t="n">
-        <v>85981.35000000001</v>
+        <v>488972</v>
       </c>
       <c r="G43" t="n">
-        <v>6983.18</v>
+        <v>17282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1858318</v>
       </c>
       <c r="I43" t="n">
-        <v>235986.91</v>
+        <v>6565529</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1819,28 +1819,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>797257</v>
+        <v>7835</v>
       </c>
       <c r="C44" t="n">
-        <v>3115267</v>
+        <v>231449</v>
       </c>
       <c r="D44" t="n">
-        <v>72930</v>
+        <v>24996.24</v>
       </c>
       <c r="E44" t="n">
-        <v>215503</v>
+        <v>58104.53</v>
       </c>
       <c r="F44" t="n">
-        <v>488972</v>
+        <v>29350</v>
       </c>
       <c r="G44" t="n">
-        <v>17282</v>
+        <v>1355</v>
       </c>
       <c r="H44" t="n">
-        <v>1858318</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6565529</v>
+        <v>353089.77</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1848,28 +1848,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>7835</v>
+        <v>1826290</v>
       </c>
       <c r="C45" t="n">
-        <v>231449</v>
+        <v>1523096</v>
       </c>
       <c r="D45" t="n">
-        <v>24996.24</v>
+        <v>121022</v>
       </c>
       <c r="E45" t="n">
-        <v>58104.53</v>
+        <v>136103</v>
       </c>
       <c r="F45" t="n">
-        <v>29350</v>
+        <v>2471522</v>
       </c>
       <c r="G45" t="n">
-        <v>1355</v>
+        <v>102169</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6998109</v>
       </c>
       <c r="I45" t="n">
-        <v>353089.77</v>
+        <v>13178311</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3897,28 +3897,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>390995</v>
       </c>
       <c r="D56" t="n">
-        <v>13317</v>
+        <v>161000</v>
       </c>
       <c r="E56" t="n">
-        <v>46145</v>
+        <v>8711</v>
       </c>
       <c r="F56" t="n">
-        <v>30687</v>
+        <v>18154</v>
       </c>
       <c r="G56" t="n">
-        <v>1738849</v>
+        <v>103202</v>
       </c>
       <c r="H56" t="n">
-        <v>60808</v>
+        <v>21169</v>
       </c>
       <c r="I56" t="n">
-        <v>6998109</v>
+        <v>2239565</v>
       </c>
       <c r="J56" t="n">
-        <v>8887915</v>
+        <v>2942796</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3927,28 +3927,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="n">
-        <v>1826290</v>
+        <v>2220856</v>
       </c>
       <c r="D57" t="n">
-        <v>1509779</v>
+        <v>651884</v>
       </c>
       <c r="E57" t="n">
-        <v>74877</v>
+        <v>6794</v>
       </c>
       <c r="F57" t="n">
-        <v>105416</v>
+        <v>11156</v>
       </c>
       <c r="G57" t="n">
-        <v>732673</v>
+        <v>69615</v>
       </c>
       <c r="H57" t="n">
-        <v>41361</v>
+        <v>4262</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4290396</v>
+        <v>2964567</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3959,28 +3959,28 @@
         <v>63</v>
       </c>
       <c r="C58" t="n">
-        <v>390995</v>
+        <v>1600</v>
       </c>
       <c r="D58" t="n">
-        <v>161000</v>
+        <v>94557.35000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>8711</v>
+        <v>564.15</v>
       </c>
       <c r="F58" t="n">
-        <v>18154</v>
+        <v>2781</v>
       </c>
       <c r="G58" t="n">
-        <v>103202</v>
+        <v>24810</v>
       </c>
       <c r="H58" t="n">
-        <v>21169</v>
+        <v>42</v>
       </c>
       <c r="I58" t="n">
-        <v>2239565</v>
+        <v>5000</v>
       </c>
       <c r="J58" t="n">
-        <v>2942796</v>
+        <v>129354.5</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3989,28 +3989,28 @@
         <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>2220856</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>651884</v>
+        <v>2000</v>
       </c>
       <c r="E59" t="n">
-        <v>6794</v>
+        <v>872.4</v>
       </c>
       <c r="F59" t="n">
-        <v>11156</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>69615</v>
+        <v>17600</v>
       </c>
       <c r="H59" t="n">
-        <v>4262</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2964567</v>
+        <v>20472.4</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4018,93 +4018,93 @@
         <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>340494</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2674</v>
+      </c>
+      <c r="G60" t="n">
+        <v>232858</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6619</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>584765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D60" t="n">
-        <v>94557.35000000001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>564.15</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2781</v>
-      </c>
-      <c r="G60" t="n">
-        <v>24810</v>
-      </c>
-      <c r="H60" t="n">
-        <v>42</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J60" t="n">
-        <v>129354.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>194148.15</v>
       </c>
       <c r="D61" t="n">
-        <v>2000</v>
+        <v>627857.8</v>
       </c>
       <c r="E61" t="n">
-        <v>872.4</v>
+        <v>20726.77</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>88203.86</v>
       </c>
       <c r="G61" t="n">
-        <v>17600</v>
+        <v>498246.25</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>27160.82</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1031039.46</v>
       </c>
       <c r="J61" t="n">
-        <v>20472.4</v>
+        <v>2487383.11</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>568255.1</v>
       </c>
       <c r="D62" t="n">
-        <v>340494</v>
+        <v>1429678.58</v>
       </c>
       <c r="E62" t="n">
-        <v>2120</v>
+        <v>16742.21</v>
       </c>
       <c r="F62" t="n">
-        <v>2674</v>
+        <v>65135.24</v>
       </c>
       <c r="G62" t="n">
-        <v>232858</v>
+        <v>271994.95</v>
       </c>
       <c r="H62" t="n">
-        <v>6619</v>
+        <v>35049.87</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>584765</v>
+        <v>2386855.95</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4115,28 +4115,28 @@
         <v>63</v>
       </c>
       <c r="C63" t="n">
-        <v>194148.15</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>627857.8</v>
+        <v>245086</v>
       </c>
       <c r="E63" t="n">
-        <v>20726.77</v>
+        <v>4852</v>
       </c>
       <c r="F63" t="n">
-        <v>88203.86</v>
+        <v>8524</v>
       </c>
       <c r="G63" t="n">
-        <v>498246.25</v>
+        <v>16322</v>
       </c>
       <c r="H63" t="n">
-        <v>27160.82</v>
+        <v>1376</v>
       </c>
       <c r="I63" t="n">
-        <v>1031039.46</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2487383.11</v>
+        <v>276160</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4145,28 +4145,28 @@
         <v>64</v>
       </c>
       <c r="C64" t="n">
-        <v>568255.1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1429678.58</v>
+        <v>393480</v>
       </c>
       <c r="E64" t="n">
-        <v>16742.21</v>
+        <v>4852</v>
       </c>
       <c r="F64" t="n">
-        <v>65135.24</v>
+        <v>8525</v>
       </c>
       <c r="G64" t="n">
-        <v>271994.95</v>
+        <v>130903</v>
       </c>
       <c r="H64" t="n">
-        <v>35049.87</v>
+        <v>943</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2386855.95</v>
+        <v>538703</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>245086</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>4852</v>
+        <v>33072.71</v>
       </c>
       <c r="F65" t="n">
-        <v>8524</v>
+        <v>96738.59</v>
       </c>
       <c r="G65" t="n">
-        <v>16322</v>
+        <v>122576.78</v>
       </c>
       <c r="H65" t="n">
-        <v>1376</v>
+        <v>10311.35</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2303382</v>
       </c>
       <c r="J65" t="n">
-        <v>276160</v>
+        <v>2566081.43</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4207,28 +4207,28 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>4858408.1</v>
       </c>
       <c r="D66" t="n">
-        <v>393480</v>
+        <v>874911.5600000001</v>
       </c>
       <c r="E66" t="n">
-        <v>4852</v>
+        <v>18641.67</v>
       </c>
       <c r="F66" t="n">
-        <v>8525</v>
+        <v>63554.91</v>
       </c>
       <c r="G66" t="n">
-        <v>130903</v>
+        <v>65899</v>
       </c>
       <c r="H66" t="n">
-        <v>943</v>
+        <v>2098.47</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>538703</v>
+        <v>5883513.71</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4245,22 +4245,22 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>33072.71</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>96738.59</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>122576.78</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>10311.35</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2303382</v>
+        <v>125500</v>
       </c>
       <c r="J67" t="n">
-        <v>2566081.43</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4269,28 +4269,28 @@
         <v>64</v>
       </c>
       <c r="C68" t="n">
-        <v>4858408.1</v>
+        <v>745242.55</v>
       </c>
       <c r="D68" t="n">
-        <v>874911.5600000001</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>18641.67</v>
+        <v>42010</v>
       </c>
       <c r="F68" t="n">
-        <v>63554.91</v>
+        <v>81420.39999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>65899</v>
+        <v>55798.2</v>
       </c>
       <c r="H68" t="n">
-        <v>2098.47</v>
+        <v>150</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5883513.71</v>
+        <v>924621.15</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4304,25 +4304,25 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>19688</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I69" t="n">
-        <v>125500</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>125500</v>
+        <v>24393</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4331,28 +4331,28 @@
         <v>64</v>
       </c>
       <c r="C70" t="n">
-        <v>745242.55</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>197902</v>
       </c>
       <c r="E70" t="n">
-        <v>42010</v>
+        <v>6883</v>
       </c>
       <c r="F70" t="n">
-        <v>81420.39999999999</v>
+        <v>14023</v>
       </c>
       <c r="G70" t="n">
-        <v>55798.2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>150</v>
+        <v>23900</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>924621.15</v>
+        <v>242708</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4360,93 +4360,93 @@
         <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>19688</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>705</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>24393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>74091.19</v>
       </c>
       <c r="D72" t="n">
-        <v>197902</v>
+        <v>526308.59</v>
       </c>
       <c r="E72" t="n">
-        <v>6883</v>
+        <v>52732.9</v>
       </c>
       <c r="F72" t="n">
-        <v>14023</v>
+        <v>100223.8</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>365749.86</v>
       </c>
       <c r="H72" t="n">
-        <v>23900</v>
+        <v>32260.74</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>16233766.85</v>
       </c>
       <c r="J72" t="n">
-        <v>242708</v>
+        <v>17385133.93</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1750833.67</v>
       </c>
       <c r="D73" t="n">
-        <v>7800</v>
+        <v>4473841</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>226243.27</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>336264.44</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1509183.24</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>85943.42</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>7800</v>
+        <v>8382309.04</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4457,28 +4457,28 @@
         <v>63</v>
       </c>
       <c r="C74" t="n">
-        <v>74091.19</v>
+        <v>300000</v>
       </c>
       <c r="D74" t="n">
-        <v>526308.59</v>
+        <v>32050</v>
       </c>
       <c r="E74" t="n">
-        <v>52732.9</v>
+        <v>11188</v>
       </c>
       <c r="F74" t="n">
-        <v>100223.8</v>
+        <v>44062</v>
       </c>
       <c r="G74" t="n">
-        <v>365749.86</v>
+        <v>75306</v>
       </c>
       <c r="H74" t="n">
-        <v>32260.74</v>
+        <v>16718</v>
       </c>
       <c r="I74" t="n">
-        <v>16233766.85</v>
+        <v>205170</v>
       </c>
       <c r="J74" t="n">
-        <v>17385133.93</v>
+        <v>684494</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4487,28 +4487,28 @@
         <v>64</v>
       </c>
       <c r="C75" t="n">
-        <v>1750833.67</v>
+        <v>427870</v>
       </c>
       <c r="D75" t="n">
-        <v>4473841</v>
+        <v>163157</v>
       </c>
       <c r="E75" t="n">
-        <v>226243.27</v>
+        <v>68056</v>
       </c>
       <c r="F75" t="n">
-        <v>336264.44</v>
+        <v>250578</v>
       </c>
       <c r="G75" t="n">
-        <v>1509183.24</v>
+        <v>193695</v>
       </c>
       <c r="H75" t="n">
-        <v>85943.42</v>
+        <v>1920</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>8382309.04</v>
+        <v>1105276</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4516,93 +4516,93 @@
         <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>168656</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9901.24</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23947.66</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11500</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>214004.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C76" t="n">
-        <v>300000</v>
-      </c>
-      <c r="D76" t="n">
-        <v>32050</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11188</v>
-      </c>
-      <c r="F76" t="n">
-        <v>44062</v>
-      </c>
-      <c r="G76" t="n">
-        <v>75306</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16718</v>
-      </c>
-      <c r="I76" t="n">
-        <v>205170</v>
-      </c>
-      <c r="J76" t="n">
-        <v>684494</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C77" t="n">
-        <v>427870</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>163157</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>68056</v>
+        <v>1271.46</v>
       </c>
       <c r="F77" t="n">
-        <v>250578</v>
+        <v>2492.45</v>
       </c>
       <c r="G77" t="n">
-        <v>193695</v>
+        <v>11425</v>
       </c>
       <c r="H77" t="n">
-        <v>1920</v>
+        <v>110.5</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1105276</v>
+        <v>15299.41</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D78" t="n">
-        <v>168656</v>
+        <v>102391.88</v>
       </c>
       <c r="E78" t="n">
-        <v>9901.24</v>
+        <v>5185.65</v>
       </c>
       <c r="F78" t="n">
-        <v>23947.66</v>
+        <v>21680.94</v>
       </c>
       <c r="G78" t="n">
-        <v>11500</v>
+        <v>74556.35000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>6872.68</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>214004.9</v>
+        <v>220687.5</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4613,28 +4613,28 @@
         <v>63</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>588846</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>2043451</v>
       </c>
       <c r="E79" t="n">
-        <v>1271.46</v>
+        <v>7716</v>
       </c>
       <c r="F79" t="n">
-        <v>2492.45</v>
+        <v>42453</v>
       </c>
       <c r="G79" t="n">
-        <v>11425</v>
+        <v>245802</v>
       </c>
       <c r="H79" t="n">
-        <v>110.5</v>
+        <v>13562</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1858318</v>
       </c>
       <c r="J79" t="n">
-        <v>15299.41</v>
+        <v>4800148</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4643,28 +4643,28 @@
         <v>64</v>
       </c>
       <c r="C80" t="n">
-        <v>10000</v>
+        <v>208411</v>
       </c>
       <c r="D80" t="n">
-        <v>102391.88</v>
+        <v>1071816</v>
       </c>
       <c r="E80" t="n">
-        <v>5185.65</v>
+        <v>65214</v>
       </c>
       <c r="F80" t="n">
-        <v>21680.94</v>
+        <v>173050</v>
       </c>
       <c r="G80" t="n">
-        <v>74556.35000000001</v>
+        <v>243170</v>
       </c>
       <c r="H80" t="n">
-        <v>6872.68</v>
+        <v>3720</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>220687.5</v>
+        <v>1765381</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4675,28 +4675,28 @@
         <v>63</v>
       </c>
       <c r="C81" t="n">
-        <v>588846</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>2043451</v>
+        <v>14500</v>
       </c>
       <c r="E81" t="n">
-        <v>7716</v>
+        <v>10153.31</v>
       </c>
       <c r="F81" t="n">
-        <v>42453</v>
+        <v>25707.13</v>
       </c>
       <c r="G81" t="n">
-        <v>245802</v>
+        <v>2750</v>
       </c>
       <c r="H81" t="n">
-        <v>13562</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1858318</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>4800148</v>
+        <v>53110.44</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4705,28 +4705,28 @@
         <v>64</v>
       </c>
       <c r="C82" t="n">
-        <v>208411</v>
+        <v>7835</v>
       </c>
       <c r="D82" t="n">
-        <v>1071816</v>
+        <v>216949</v>
       </c>
       <c r="E82" t="n">
-        <v>65214</v>
+        <v>14842.93</v>
       </c>
       <c r="F82" t="n">
-        <v>173050</v>
+        <v>32397.4</v>
       </c>
       <c r="G82" t="n">
-        <v>243170</v>
+        <v>26600</v>
       </c>
       <c r="H82" t="n">
-        <v>3720</v>
+        <v>1355</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1765381</v>
+        <v>299979.33</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4740,25 +4740,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>14500</v>
+        <v>13317</v>
       </c>
       <c r="E83" t="n">
-        <v>10153.31</v>
+        <v>46145</v>
       </c>
       <c r="F83" t="n">
-        <v>25707.13</v>
+        <v>30687</v>
       </c>
       <c r="G83" t="n">
-        <v>2750</v>
+        <v>1738849</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>60808</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>6998109</v>
       </c>
       <c r="J83" t="n">
-        <v>53110.44</v>
+        <v>8887915</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4767,28 +4767,28 @@
         <v>64</v>
       </c>
       <c r="C84" t="n">
-        <v>7835</v>
+        <v>1826290</v>
       </c>
       <c r="D84" t="n">
-        <v>216949</v>
+        <v>1509779</v>
       </c>
       <c r="E84" t="n">
-        <v>14842.93</v>
+        <v>74877</v>
       </c>
       <c r="F84" t="n">
-        <v>32397.4</v>
+        <v>105416</v>
       </c>
       <c r="G84" t="n">
-        <v>26600</v>
+        <v>732673</v>
       </c>
       <c r="H84" t="n">
-        <v>1355</v>
+        <v>41361</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>299979.33</v>
+        <v>4290396</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5409,14 +5409,14 @@
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A83:A84"/>
